--- a/data/trans_orig/Q5406-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5879</v>
+        <v>6121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03170107347127261</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09833683235350324</v>
+        <v>0.1023808528552463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6734</v>
+        <v>6632</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02117738721440172</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07524644817421101</v>
+        <v>0.07410247050111218</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>57889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53905</v>
+        <v>53663</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -863,7 +863,7 @@
         <v>0.9682989265287274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9016631676464967</v>
+        <v>0.8976191471447539</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>87598</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82759</v>
+        <v>82861</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>89493</v>
@@ -897,7 +897,7 @@
         <v>0.9788226127855982</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9247535518257889</v>
+        <v>0.9258975294988873</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8246</v>
+        <v>8277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03445050489423308</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.162234090642013</v>
+        <v>0.1628457793072288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8895</v>
+        <v>7352</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02628687198892891</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1335338163798363</v>
+        <v>0.1103608737714709</v>
       </c>
     </row>
     <row r="9">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01610677617254181</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4380</v>
+        <v>3498</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01229000169088415</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06574891234989028</v>
+        <v>0.05251383275777588</v>
       </c>
     </row>
     <row r="10">
@@ -1118,7 +1118,7 @@
         <v>48260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41059</v>
+        <v>41631</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>50830</v>
@@ -1127,7 +1127,7 @@
         <v>0.9494427189332251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.807766550386385</v>
+        <v>0.8190200560740314</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>64046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57217</v>
+        <v>57188</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>66616</v>
@@ -1161,7 +1161,7 @@
         <v>0.9614231263201869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8589124034714614</v>
+        <v>0.8584759987877955</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5209</v>
+        <v>6319</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01188263730392363</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05424750441971093</v>
+        <v>0.06580688966234702</v>
       </c>
     </row>
     <row r="13">
@@ -1319,19 +1319,19 @@
         <v>6107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2574</v>
+        <v>2616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11415</v>
+        <v>11773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08511525752098899</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03586853831936782</v>
+        <v>0.03645902049527673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1590845419012004</v>
+        <v>0.1640676097536619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>6107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2684</v>
+        <v>2603</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11912</v>
+        <v>12452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06359895723635384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02794633172271999</v>
+        <v>0.02711051824857999</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1240395109406993</v>
+        <v>0.1296654148039043</v>
       </c>
     </row>
     <row r="14">
@@ -1382,19 +1382,19 @@
         <v>65647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60339</v>
+        <v>59981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69180</v>
+        <v>69138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.914884742479011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8409154580987999</v>
+        <v>0.8359323902463381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9641314616806322</v>
+        <v>0.9635409795047233</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1403,7 +1403,7 @@
         <v>23134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18863</v>
+        <v>18845</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>24275</v>
@@ -1412,7 +1412,7 @@
         <v>0.9529940686469128</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7770470603862727</v>
+        <v>0.7762936733212286</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1424,19 +1424,19 @@
         <v>88782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81903</v>
+        <v>82046</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>92498</v>
+        <v>92650</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9245184054597225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8528900824830266</v>
+        <v>0.8543782911167043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9632204553330597</v>
+        <v>0.9647983506270825</v>
       </c>
     </row>
     <row r="15">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6766</v>
+        <v>5806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00701495382433793</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0260158620408453</v>
+        <v>0.02232422555329097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6290</v>
+        <v>6406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005275494627866383</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01818808356032722</v>
+        <v>0.01852325583380387</v>
       </c>
     </row>
     <row r="17">
@@ -1591,19 +1591,19 @@
         <v>14681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8601</v>
+        <v>9097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22560</v>
+        <v>23254</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05644990631757255</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03307303415167043</v>
+        <v>0.03497783672729981</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08674678818789656</v>
+        <v>0.08941556351421417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6738</v>
+        <v>6782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02218925358145287</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07857415012223742</v>
+        <v>0.07909102433182597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -1633,19 +1633,19 @@
         <v>16584</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10640</v>
+        <v>10679</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26660</v>
+        <v>25300</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.047954482260439</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03076843220617765</v>
+        <v>0.03087950393353767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07709082455028521</v>
+        <v>0.07315764315721295</v>
       </c>
     </row>
     <row r="18">
@@ -1662,19 +1662,19 @@
         <v>243567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>234925</v>
+        <v>234068</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>250039</v>
+        <v>249266</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9365351398580896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9033058064133574</v>
+        <v>0.9000131811221831</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.961421018766762</v>
+        <v>0.9584516765512051</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>86</v>
@@ -1683,7 +1683,7 @@
         <v>83849</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79014</v>
+        <v>78970</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85752</v>
@@ -1692,7 +1692,7 @@
         <v>0.9778107464185471</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9214258498777624</v>
+        <v>0.920908975668174</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1704,19 +1704,19 @@
         <v>327416</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>317225</v>
+        <v>318357</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>333690</v>
+        <v>333828</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9467700231116947</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9173012053127526</v>
+        <v>0.920576432601072</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.964913402263505</v>
+        <v>0.9653132241756667</v>
       </c>
     </row>
     <row r="19">
@@ -1821,19 +1821,19 @@
         <v>3552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9444</v>
+        <v>9527</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03690830003121607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0117163615021239</v>
+        <v>0.01175091272274608</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09812044327953644</v>
+        <v>0.09898692615380901</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1842,19 +1842,19 @@
         <v>3552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9201</v>
+        <v>9462</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02341504947824734</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007295979661918596</v>
+        <v>0.007258089053267123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06064866499898969</v>
+        <v>0.06236559409974488</v>
       </c>
     </row>
     <row r="21">
@@ -1871,19 +1871,19 @@
         <v>4688</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1862</v>
+        <v>1796</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10958</v>
+        <v>10500</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08451511884077492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03356244530332485</v>
+        <v>0.03237794972417349</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1975604179925121</v>
+        <v>0.1893058215493235</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1892,19 +1892,19 @@
         <v>7098</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2741</v>
+        <v>2444</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14859</v>
+        <v>14270</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07374503531813724</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0284798812571504</v>
+        <v>0.02539646502703223</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1543838336115588</v>
+        <v>0.1482603130337945</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1913,19 +1913,19 @@
         <v>11786</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6496</v>
+        <v>5842</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20587</v>
+        <v>19622</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07768245414600088</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04281483334534535</v>
+        <v>0.03850536471997265</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.135692671362509</v>
+        <v>0.1293373728312945</v>
       </c>
     </row>
     <row r="22">
@@ -1942,19 +1942,19 @@
         <v>50777</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44507</v>
+        <v>44965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53603</v>
+        <v>53669</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9154848811592251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8024395820074873</v>
+        <v>0.8106941784506765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9664375546966751</v>
+        <v>0.9676220502758265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -1963,19 +1963,19 @@
         <v>85600</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77576</v>
+        <v>77707</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91524</v>
+        <v>91244</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8893466646506467</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8059822488176095</v>
+        <v>0.8073461322434706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9508971916995378</v>
+        <v>0.9479891697361003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>136</v>
@@ -1984,19 +1984,19 @@
         <v>136377</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126635</v>
+        <v>128191</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142403</v>
+        <v>143062</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8989024963757518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8346890795282987</v>
+        <v>0.8449443898423684</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9386222132895433</v>
+        <v>0.9429673725113042</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>11254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5554</v>
+        <v>5575</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19664</v>
+        <v>19523</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02647450249736683</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01306633964160145</v>
+        <v>0.01311456960440286</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04626177104761235</v>
+        <v>0.04592897200377054</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -2122,19 +2122,19 @@
         <v>11254</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5382</v>
+        <v>5035</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20251</v>
+        <v>20116</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02624941299461974</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01255416479134818</v>
+        <v>0.01174388089050833</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04723536903304518</v>
+        <v>0.04692234952790829</v>
       </c>
     </row>
     <row r="25">
@@ -2164,19 +2164,19 @@
         <v>18042</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11127</v>
+        <v>10213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29496</v>
+        <v>28724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04244535154266612</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02617787848798404</v>
+        <v>0.02402678529232211</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06939020043898265</v>
+        <v>0.06757565655505482</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2185,19 +2185,19 @@
         <v>18042</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10441</v>
+        <v>11039</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27740</v>
+        <v>28765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04208447590114597</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02435320949052578</v>
+        <v>0.02574838037245596</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06470398960201863</v>
+        <v>0.06709660773723924</v>
       </c>
     </row>
     <row r="26">
@@ -2227,19 +2227,19 @@
         <v>395774</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>383267</v>
+        <v>383027</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>405554</v>
+        <v>405368</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.931080145959967</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9016561133219783</v>
+        <v>0.9010924472161767</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9540878293471623</v>
+        <v>0.953649641352427</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>390</v>
@@ -2248,19 +2248,19 @@
         <v>399419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>387883</v>
+        <v>386790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>409017</v>
+        <v>408604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9316661111042343</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.904757698374685</v>
+        <v>0.9022073483407107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9540527741779481</v>
+        <v>0.9530894877744194</v>
       </c>
     </row>
     <row r="27">
@@ -2352,19 +2352,19 @@
         <v>3576</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10796</v>
+        <v>10700</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007128922088733108</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001682109335544919</v>
+        <v>0.001697716496420563</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02152543453117137</v>
+        <v>0.02133393444501298</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2373,19 +2373,19 @@
         <v>15947</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9253</v>
+        <v>8915</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25432</v>
+        <v>25339</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02356093782705999</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01367027470410609</v>
+        <v>0.01317119300147788</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03757522222768977</v>
+        <v>0.0374369088795868</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -2394,19 +2394,19 @@
         <v>19523</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11496</v>
+        <v>11928</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30772</v>
+        <v>30892</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01656709700763738</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009755903492122422</v>
+        <v>0.01012263531493672</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02611380006670344</v>
+        <v>0.02621549096296145</v>
       </c>
     </row>
     <row r="29">
@@ -2423,19 +2423,19 @@
         <v>28190</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20228</v>
+        <v>19641</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38608</v>
+        <v>39750</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05620569666013236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04033188903465048</v>
+        <v>0.03916029365162357</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07697739821934606</v>
+        <v>0.0792550129245335</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2444,19 +2444,19 @@
         <v>27043</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18135</v>
+        <v>18609</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39317</v>
+        <v>39299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03995466237658968</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02679323227797281</v>
+        <v>0.02749315154752066</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05808946410527547</v>
+        <v>0.05806207022899591</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>55</v>
@@ -2465,19 +2465,19 @@
         <v>55233</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42412</v>
+        <v>42509</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69770</v>
+        <v>70292</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04687147335949163</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03599124052374597</v>
+        <v>0.03607340500326293</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05920740400754949</v>
+        <v>0.05965110313520119</v>
       </c>
     </row>
     <row r="30">
@@ -2494,19 +2494,19 @@
         <v>469785</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>457627</v>
+        <v>458826</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>478530</v>
+        <v>479156</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9366653812511345</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9124244417355142</v>
+        <v>0.9148147127216379</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9541012089848231</v>
+        <v>0.9553478954181727</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>622</v>
@@ -2515,19 +2515,19 @@
         <v>633852</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>618507</v>
+        <v>617242</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>645376</v>
+        <v>645162</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9364843997963503</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9138128138687223</v>
+        <v>0.9119447086292392</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9535098999452636</v>
+        <v>0.9531949834858701</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1110</v>
@@ -2536,19 +2536,19 @@
         <v>1103637</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1084277</v>
+        <v>1085740</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1118335</v>
+        <v>1118771</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.936561429632871</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9201319724337185</v>
+        <v>0.9213737028072538</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9490336038176204</v>
+        <v>0.9494038143253822</v>
       </c>
     </row>
     <row r="31">
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7613</v>
+        <v>7494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03098152699325197</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1100018579113087</v>
+        <v>0.1082896679090921</v>
       </c>
     </row>
     <row r="6">
@@ -3000,7 +3000,7 @@
         <v>42873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38367</v>
+        <v>38563</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>43918</v>
@@ -3009,7 +3009,7 @@
         <v>0.9762154359677468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8736134589042058</v>
+        <v>0.8780741009458828</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3021,7 +3021,7 @@
         <v>24189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3030,7 +3030,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>67063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61594</v>
+        <v>61713</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>69207</v>
@@ -3051,7 +3051,7 @@
         <v>0.969018473006748</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8899981420886904</v>
+        <v>0.8917103320909079</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11813</v>
+        <v>12062</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05625462087652878</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1948365076741626</v>
+        <v>0.1989412563847791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5352</v>
+        <v>5389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05796467111718722</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2831433272509084</v>
+        <v>0.2850968805133176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -3188,19 +3188,19 @@
         <v>4506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12423</v>
+        <v>13826</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05666103493099177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01393276269193875</v>
+        <v>0.01400780278692104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1561977449464678</v>
+        <v>0.1738418411672508</v>
       </c>
     </row>
     <row r="9">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4981</v>
+        <v>5725</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01825553143033202</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08215061456890306</v>
+        <v>0.09441770874231588</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5634</v>
+        <v>5812</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.298069881508649</v>
+        <v>0.3074551670108447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6859</v>
+        <v>7846</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0279125490925622</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08624648014028113</v>
+        <v>0.09865337045287224</v>
       </c>
     </row>
     <row r="10">
@@ -3288,19 +3288,19 @@
         <v>56112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48146</v>
+        <v>47239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59516</v>
+        <v>59518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9254898476931392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7940891632784521</v>
+        <v>0.7791285182552801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9816287901937821</v>
+        <v>0.9816523056613325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3309,7 +3309,7 @@
         <v>16693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11990</v>
+        <v>12078</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3318,7 +3318,7 @@
         <v>0.8831463961318494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6343359911177578</v>
+        <v>0.6389828669818506</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3330,19 +3330,19 @@
         <v>72805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63926</v>
+        <v>64651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77288</v>
+        <v>77298</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.915426415976446</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8037860625057884</v>
+        <v>0.8128992033079393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9718003248203784</v>
+        <v>0.9719252996825416</v>
       </c>
     </row>
     <row r="11">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5863</v>
+        <v>6176</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02119809010308036</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1073578745508859</v>
+        <v>0.1130797091230978</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7269</v>
+        <v>7839</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0124075999401873</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04195380131747413</v>
+        <v>0.0452409703447665</v>
       </c>
     </row>
     <row r="13">
@@ -3505,19 +3505,19 @@
         <v>6761</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2086</v>
+        <v>2152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16613</v>
+        <v>18543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05697935841510243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01758057682068014</v>
+        <v>0.01814049166336617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1400093370545868</v>
+        <v>0.1562780905101</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4291</v>
+        <v>6377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01910286725629822</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07857341557603917</v>
+        <v>0.1167541801071801</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -3547,19 +3547,19 @@
         <v>7804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2338</v>
+        <v>2169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17365</v>
+        <v>17491</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04504058966322815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01349570901632699</v>
+        <v>0.01251964146006047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1002200399929446</v>
+        <v>0.1009469656371597</v>
       </c>
     </row>
     <row r="14">
@@ -3576,19 +3576,19 @@
         <v>110900</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100374</v>
+        <v>99780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116331</v>
+        <v>116287</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9346591806087994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8459493475817836</v>
+        <v>0.8409385202738225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9804326808314507</v>
+        <v>0.9800606785000895</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -3597,7 +3597,7 @@
         <v>52414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47920</v>
+        <v>47843</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>54615</v>
@@ -3606,7 +3606,7 @@
         <v>0.9596990426406214</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8774203828426087</v>
+        <v>0.8760090898362364</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3618,19 +3618,19 @@
         <v>163314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>153085</v>
+        <v>153755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169789</v>
+        <v>169929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9425518103965845</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8835140972744109</v>
+        <v>0.8873846491426854</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9799196235916408</v>
+        <v>0.9807300873993993</v>
       </c>
     </row>
     <row r="15">
@@ -3722,19 +3722,19 @@
         <v>8353</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3996</v>
+        <v>4110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15364</v>
+        <v>15703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03604435014181444</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01724416312816521</v>
+        <v>0.01773396183532413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06629326928245584</v>
+        <v>0.06775636899995714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6912</v>
+        <v>7763</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03678868037366338</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1150186317033943</v>
+        <v>0.1291810615566541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3764,19 +3764,19 @@
         <v>10564</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5350</v>
+        <v>5194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19447</v>
+        <v>18811</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03619761718294212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01833034492809828</v>
+        <v>0.01779533745231244</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06663394404649718</v>
+        <v>0.06445402089689986</v>
       </c>
     </row>
     <row r="17">
@@ -3793,19 +3793,19 @@
         <v>19852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12183</v>
+        <v>12281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30159</v>
+        <v>31271</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08566170504040224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05256896757912854</v>
+        <v>0.05299363733708787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1301339767577346</v>
+        <v>0.1349335467858131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7270</v>
+        <v>6373</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03417498251392167</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.120970325648782</v>
+        <v>0.1060520942521843</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -3835,19 +3835,19 @@
         <v>21906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13417</v>
+        <v>13762</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34014</v>
+        <v>35044</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07505993544763249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04597356377394485</v>
+        <v>0.04715600283769102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1165462253632095</v>
+        <v>0.1200752681763659</v>
       </c>
     </row>
     <row r="18">
@@ -3864,19 +3864,19 @@
         <v>203547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>191959</v>
+        <v>191752</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213085</v>
+        <v>212989</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8782939448177833</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8282927758046789</v>
+        <v>0.8273964546491879</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9194476987729987</v>
+        <v>0.919033068714161</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -3885,19 +3885,19 @@
         <v>55830</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50504</v>
+        <v>50485</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59008</v>
+        <v>59009</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.929036337112415</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8403989439900542</v>
+        <v>0.8400865254181218</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9819065194161162</v>
+        <v>0.9819306834478966</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>243</v>
@@ -3906,19 +3906,19 @@
         <v>259378</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>246743</v>
+        <v>245594</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>269944</v>
+        <v>269890</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8887424473694254</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8454498417770461</v>
+        <v>0.8415150037173541</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9249479701977923</v>
+        <v>0.9247606108313379</v>
       </c>
     </row>
     <row r="19">
@@ -4010,19 +4010,19 @@
         <v>4082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10228</v>
+        <v>9516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03975292569175113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01005627146003542</v>
+        <v>0.01039972393712757</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09959496555692718</v>
+        <v>0.09266187717235332</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -4031,19 +4031,19 @@
         <v>11958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6282</v>
+        <v>6338</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21110</v>
+        <v>20781</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06347060247238759</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03334279655664985</v>
+        <v>0.0336433955602897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1120469606753076</v>
+        <v>0.1103007936874832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -4052,19 +4052,19 @@
         <v>16040</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10477</v>
+        <v>8705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26176</v>
+        <v>24736</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0551032471012685</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03599296367901122</v>
+        <v>0.02990459958967222</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08992304396900873</v>
+        <v>0.08497566268023189</v>
       </c>
     </row>
     <row r="21">
@@ -4081,19 +4081,19 @@
         <v>8394</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3231</v>
+        <v>4088</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14811</v>
+        <v>15742</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08173923707518146</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03146062238419992</v>
+        <v>0.03980373772855891</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1442258801261788</v>
+        <v>0.1532895322185687</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -4102,19 +4102,19 @@
         <v>20652</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13366</v>
+        <v>12935</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31063</v>
+        <v>30402</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1096172051658076</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07094552108850227</v>
+        <v>0.06865764804100663</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1648785498866901</v>
+        <v>0.161371089372558</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -4123,19 +4123,19 @@
         <v>29046</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19257</v>
+        <v>19772</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41009</v>
+        <v>41483</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09978214129355564</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06615490846117349</v>
+        <v>0.06792367411428792</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1408778361582675</v>
+        <v>0.1425062786674616</v>
       </c>
     </row>
     <row r="22">
@@ -4152,19 +4152,19 @@
         <v>90219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82898</v>
+        <v>82454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95548</v>
+        <v>95699</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8785078372330674</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8072208734947938</v>
+        <v>0.8028975359912036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9303979744251161</v>
+        <v>0.9318640888266272</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>147</v>
@@ -4173,19 +4173,19 @@
         <v>155790</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144143</v>
+        <v>143710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>164800</v>
+        <v>164385</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8269121923618048</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7650922210838815</v>
+        <v>0.7627909862658886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8747362773958108</v>
+        <v>0.8725303346643026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>231</v>
@@ -4194,19 +4194,19 @@
         <v>246009</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231781</v>
+        <v>232071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>257136</v>
+        <v>257887</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8451146116051759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7962355968973936</v>
+        <v>0.7972314053106012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8833372811756135</v>
+        <v>0.8859186004305984</v>
       </c>
     </row>
     <row r="23">
@@ -4311,19 +4311,19 @@
         <v>15955</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9395</v>
+        <v>8479</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26934</v>
+        <v>25457</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04042286019986427</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02380179794857831</v>
+        <v>0.02148168060062617</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06823734540828361</v>
+        <v>0.06449647136696003</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -4332,19 +4332,19 @@
         <v>15955</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9388</v>
+        <v>8597</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25587</v>
+        <v>25770</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04022031134253273</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0236665171417153</v>
+        <v>0.02167067425583981</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06449977184960635</v>
+        <v>0.06496198535782249</v>
       </c>
     </row>
     <row r="25">
@@ -4374,19 +4374,19 @@
         <v>25126</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16993</v>
+        <v>16392</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36815</v>
+        <v>37398</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06365713362272286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04305328793233644</v>
+        <v>0.04152903067151052</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09327331473091688</v>
+        <v>0.09474986641360753</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -4395,19 +4395,19 @@
         <v>25126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16984</v>
+        <v>16265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>37767</v>
+        <v>37187</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06333816362375365</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04281486241415625</v>
+        <v>0.04100096013405295</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09520380701083649</v>
+        <v>0.0937429142881455</v>
       </c>
     </row>
     <row r="26">
@@ -4437,19 +4437,19 @@
         <v>353623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>338906</v>
+        <v>339945</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>365462</v>
+        <v>364703</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8959200061774129</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8586345149567303</v>
+        <v>0.8612664554990946</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9259133240612794</v>
+        <v>0.9239902162358876</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>333</v>
@@ -4458,19 +4458,19 @@
         <v>355611</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>340980</v>
+        <v>342695</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>366083</v>
+        <v>367414</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8964415250337137</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8595597509317697</v>
+        <v>0.8638828016037984</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9228396936522089</v>
+        <v>0.9261940456423003</v>
       </c>
     </row>
     <row r="27">
@@ -4562,19 +4562,19 @@
         <v>16839</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10318</v>
+        <v>9982</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28768</v>
+        <v>28577</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03008852188310793</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01843682097584751</v>
+        <v>0.01783689581927441</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0514048807776218</v>
+        <v>0.05106426260157142</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -4583,19 +4583,19 @@
         <v>32377</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22442</v>
+        <v>22422</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46622</v>
+        <v>47341</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04363465190473577</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03024495479395026</v>
+        <v>0.03021799885610704</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06283244774660644</v>
+        <v>0.06380138117041234</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>44</v>
@@ -4604,19 +4604,19 @@
         <v>49216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36615</v>
+        <v>36126</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>66858</v>
+        <v>64944</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03781053439832613</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02812990798801971</v>
+        <v>0.02775439653995961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05136441783865518</v>
+        <v>0.04989391850979277</v>
       </c>
     </row>
     <row r="29">
@@ -4633,19 +4633,19 @@
         <v>37159</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25479</v>
+        <v>25458</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52803</v>
+        <v>53171</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0663980413942242</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04552825736442501</v>
+        <v>0.04549022809065446</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09435240129601363</v>
+        <v>0.09501068454393155</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -4654,19 +4654,19 @@
         <v>51087</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38073</v>
+        <v>36800</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66951</v>
+        <v>66386</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06885043727813711</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05131110784849099</v>
+        <v>0.04959572157218563</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09023007526245456</v>
+        <v>0.08946796652370483</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -4675,19 +4675,19 @@
         <v>88246</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>69819</v>
+        <v>70199</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109356</v>
+        <v>109065</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06779603710795273</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05363914571442323</v>
+        <v>0.05393120937708294</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08401376172060671</v>
+        <v>0.08379028460752427</v>
       </c>
     </row>
     <row r="30">
@@ -4704,19 +4704,19 @@
         <v>505640</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>487773</v>
+        <v>487365</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>519302</v>
+        <v>519776</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9035134367226678</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8715881168514787</v>
+        <v>0.8708596634090122</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9279264542289305</v>
+        <v>0.9287743438234454</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>617</v>
@@ -4725,19 +4725,19 @@
         <v>658541</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>639345</v>
+        <v>640095</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>676080</v>
+        <v>675945</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8875149108171271</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8616451720257081</v>
+        <v>0.8626553691235973</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9111524932610741</v>
+        <v>0.9109711677249555</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1075</v>
@@ -4746,19 +4746,19 @@
         <v>1164180</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1137199</v>
+        <v>1139776</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1184957</v>
+        <v>1185861</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8943934284937212</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8736648284071216</v>
+        <v>0.8756447956192017</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9103553388034419</v>
+        <v>0.9110504260077732</v>
       </c>
     </row>
     <row r="31">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6956</v>
+        <v>7046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01303626473287373</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06590828906465615</v>
+        <v>0.06676355562504785</v>
       </c>
     </row>
     <row r="6">
@@ -5215,7 +5215,7 @@
         <v>35512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5224,7 +5224,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>104159</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98579</v>
+        <v>98489</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>105535</v>
@@ -5245,7 +5245,7 @@
         <v>0.9869637352671262</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9340917109353439</v>
+        <v>0.9332364443749521</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5306</v>
+        <v>4692</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01872070904589686</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09946724655601481</v>
+        <v>0.08796293479054751</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7140</v>
+        <v>7414</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.148318166405232</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4059694149365029</v>
+        <v>0.421562666607919</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -5429,19 +5429,19 @@
         <v>3607</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1017</v>
+        <v>987</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9288</v>
+        <v>9213</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05085540317986951</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01434431217822481</v>
+        <v>0.01391097474430928</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1309354344027329</v>
+        <v>0.129880617561493</v>
       </c>
     </row>
     <row r="10">
@@ -5458,7 +5458,7 @@
         <v>52345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48038</v>
+        <v>48652</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>53344</v>
@@ -5467,7 +5467,7 @@
         <v>0.9812792909541032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9005327534439861</v>
+        <v>0.9120370652094513</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5479,7 +5479,7 @@
         <v>14979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10448</v>
+        <v>10174</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5488,7 +5488,7 @@
         <v>0.8516818335947679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5940305850634967</v>
+        <v>0.578437333392081</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5500,19 +5500,19 @@
         <v>67325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61644</v>
+        <v>61719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69915</v>
+        <v>69945</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9491445968201305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8690645655972669</v>
+        <v>0.8701193824385075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9856556878217752</v>
+        <v>0.9860890252556906</v>
       </c>
     </row>
     <row r="11">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5523</v>
+        <v>4724</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006590035005287153</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04592586970024221</v>
+        <v>0.0392781970559695</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4847</v>
+        <v>4074</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004760767630258391</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02911659849837849</v>
+        <v>0.02447574662343662</v>
       </c>
     </row>
     <row r="13">
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7241</v>
+        <v>7176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01699977080095058</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06021336772839761</v>
+        <v>0.05966985354591124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -5709,19 +5709,19 @@
         <v>3232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8289</v>
+        <v>9134</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01941261846369338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004736200702350621</v>
+        <v>0.004771755684192368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04979003375775876</v>
+        <v>0.05486861988737678</v>
       </c>
     </row>
     <row r="14">
@@ -5738,19 +5738,19 @@
         <v>117424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112123</v>
+        <v>112488</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119478</v>
+        <v>119479</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9764101941937623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9323312427239701</v>
+        <v>0.9353626081347518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9934921643386263</v>
+        <v>0.9934961760446438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -5759,7 +5759,7 @@
         <v>45022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40871</v>
+        <v>40650</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>46209</v>
@@ -5768,7 +5768,7 @@
         <v>0.9743078145324126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8844866998190876</v>
+        <v>0.8797059574698952</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5780,19 +5780,19 @@
         <v>162446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>157120</v>
+        <v>157346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165278</v>
+        <v>165260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9758266139060482</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9438313964501229</v>
+        <v>0.9451939678330011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928369220116436</v>
+        <v>0.9927303124393898</v>
       </c>
     </row>
     <row r="15">
@@ -5884,19 +5884,19 @@
         <v>2601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7474</v>
+        <v>7273</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01275864391089947</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003962828187754232</v>
+        <v>0.003927470345979404</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0366623921473791</v>
+        <v>0.03567564430765251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8397</v>
+        <v>8399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02113340975051712</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08477976724436416</v>
+        <v>0.08479819959373348</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5926,19 +5926,19 @@
         <v>4694</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1647</v>
+        <v>1622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12897</v>
+        <v>12662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01549711267017348</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005437047457899081</v>
+        <v>0.005353304055664836</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04257683765983025</v>
+        <v>0.04180145715836316</v>
       </c>
     </row>
     <row r="17">
@@ -5955,19 +5955,19 @@
         <v>6831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3266</v>
+        <v>3315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13388</v>
+        <v>13598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03351079414090659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0160214965235911</v>
+        <v>0.01625928467373957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06567413447631298</v>
+        <v>0.06670421440492041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5976,19 +5976,19 @@
         <v>4579</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1271</v>
+        <v>1234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12285</v>
+        <v>12532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0462278465561333</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01283010135534985</v>
+        <v>0.01246183063879285</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1240357423507707</v>
+        <v>0.1265279168796175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -5997,19 +5997,19 @@
         <v>11410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5833</v>
+        <v>5364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19743</v>
+        <v>20158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03766914930164485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01925748854891059</v>
+        <v>0.01770732986605402</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06517964006474587</v>
+        <v>0.06654901281461843</v>
       </c>
     </row>
     <row r="18">
@@ -6026,19 +6026,19 @@
         <v>194424</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>187373</v>
+        <v>187536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198895</v>
+        <v>198837</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9537305619481939</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.919144673184253</v>
+        <v>0.9199438449512441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9756620441059669</v>
+        <v>0.9753806338436648</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -6047,19 +6047,19 @@
         <v>92374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83321</v>
+        <v>82582</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96908</v>
+        <v>96892</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9326387436933495</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8412306125352995</v>
+        <v>0.8337735142888152</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9784123213447381</v>
+        <v>0.9782561341926224</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>287</v>
@@ -6068,19 +6068,19 @@
         <v>286798</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>276911</v>
+        <v>276999</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>293496</v>
+        <v>294116</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9468337380281817</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9141949888746962</v>
+        <v>0.9144843776210385</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9689469371872032</v>
+        <v>0.9709943446827316</v>
       </c>
     </row>
     <row r="19">
@@ -6172,19 +6172,19 @@
         <v>3220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8099</v>
+        <v>8396</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02217245498245905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005496434401877815</v>
+        <v>0.005581394560775392</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05577188210304741</v>
+        <v>0.057816120097565</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8298</v>
+        <v>8984</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0159953436343604</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05200873195553955</v>
+        <v>0.05630545115058378</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -6214,19 +6214,19 @@
         <v>5772</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2007</v>
+        <v>2250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11618</v>
+        <v>12106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01893868412402569</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006585774547317256</v>
+        <v>0.007381170014553538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0381212779660367</v>
+        <v>0.03972304143247267</v>
       </c>
     </row>
     <row r="21">
@@ -6243,19 +6243,19 @@
         <v>8327</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3561</v>
+        <v>4212</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15141</v>
+        <v>14886</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05733709352063107</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.024523287752583</v>
+        <v>0.02900444500962126</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1042633201192502</v>
+        <v>0.1025062394253021</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -6264,19 +6264,19 @@
         <v>8233</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3587</v>
+        <v>3267</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15792</v>
+        <v>15692</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05160003639673517</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02247962365146796</v>
+        <v>0.02047321951772058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09897800060504533</v>
+        <v>0.09835012255635962</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -6285,19 +6285,19 @@
         <v>16559</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10180</v>
+        <v>9960</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25562</v>
+        <v>27476</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05433369482908368</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03340217613331773</v>
+        <v>0.03268071449031316</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08387440047905141</v>
+        <v>0.09015246819648011</v>
       </c>
     </row>
     <row r="22">
@@ -6314,19 +6314,19 @@
         <v>133675</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126582</v>
+        <v>125967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139278</v>
+        <v>138842</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9204904514969099</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8716504770432776</v>
+        <v>0.8674133985869072</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9590789357653116</v>
+        <v>0.9560735609874953</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -6335,19 +6335,19 @@
         <v>148765</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>140672</v>
+        <v>140260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154646</v>
+        <v>154659</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9324046199689044</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8816772688424339</v>
+        <v>0.879095952523933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9692640994596425</v>
+        <v>0.9693470551510108</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>276</v>
@@ -6356,19 +6356,19 @@
         <v>282440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>272366</v>
+        <v>272405</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>289888</v>
+        <v>291057</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9267276210468907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8936730534186105</v>
+        <v>0.8938024265562048</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9511653506057701</v>
+        <v>0.9550028218481181</v>
       </c>
     </row>
     <row r="23">
@@ -6469,19 +6469,19 @@
         <v>9239</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18310</v>
+        <v>18340</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02236632361411631</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008747838046892971</v>
+        <v>0.008741584009056001</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04432467755221617</v>
+        <v>0.04439879278573517</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -6490,19 +6490,19 @@
         <v>9239</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18310</v>
+        <v>18340</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02236632361411631</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008747838046892971</v>
+        <v>0.008741584009056001</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04432467755221617</v>
+        <v>0.04439879278573517</v>
       </c>
     </row>
     <row r="25">
@@ -6528,19 +6528,19 @@
         <v>22564</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13549</v>
+        <v>13329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35476</v>
+        <v>33695</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05462234322556078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0328002697066176</v>
+        <v>0.03226600989565553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08588145467500694</v>
+        <v>0.08156972619486588</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -6549,19 +6549,19 @@
         <v>22564</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13549</v>
+        <v>13329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35476</v>
+        <v>33695</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05462234322556078</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0328002697066176</v>
+        <v>0.03226600989565553</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08588145467500694</v>
+        <v>0.08156972619486588</v>
       </c>
     </row>
     <row r="26">
@@ -6587,19 +6587,19 @@
         <v>381280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>366657</v>
+        <v>366129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>392131</v>
+        <v>391645</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9230113331603229</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.887612122183013</v>
+        <v>0.8863332877154498</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9492799812791129</v>
+        <v>0.9481026806940718</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>323</v>
@@ -6608,19 +6608,19 @@
         <v>381280</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>366657</v>
+        <v>366129</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>392131</v>
+        <v>391645</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9230113331603229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.887612122183013</v>
+        <v>0.8863332877154498</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9492799812791129</v>
+        <v>0.9481026806940718</v>
       </c>
     </row>
     <row r="27">
@@ -6700,19 +6700,19 @@
         <v>6613</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3234</v>
+        <v>3203</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12021</v>
+        <v>13040</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01118388622846911</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005468254944742038</v>
+        <v>0.005416284807121394</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02032863556362116</v>
+        <v>0.02205160298744004</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -6721,19 +6721,19 @@
         <v>13884</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7160</v>
+        <v>7025</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25623</v>
+        <v>25818</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01797647163438431</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00927008802035597</v>
+        <v>0.009095301285518047</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03317427585655067</v>
+        <v>0.03342764395246588</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -6742,19 +6742,19 @@
         <v>20498</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11998</v>
+        <v>12686</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32430</v>
+        <v>32685</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01503105138392119</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008798198828541454</v>
+        <v>0.009302517997766893</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0237812967971023</v>
+        <v>0.02396819621142354</v>
       </c>
     </row>
     <row r="29">
@@ -6771,19 +6771,19 @@
         <v>18201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11266</v>
+        <v>10929</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26265</v>
+        <v>26479</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03077977113343459</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01905200172118266</v>
+        <v>0.01848157409535177</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04441772988693886</v>
+        <v>0.04477834645811667</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -6792,19 +6792,19 @@
         <v>40547</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28751</v>
+        <v>27935</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58625</v>
+        <v>56554</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05249681155614393</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03722471285241034</v>
+        <v>0.03616798854776669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07590375245279554</v>
+        <v>0.07322143996660245</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>51</v>
@@ -6813,19 +6813,19 @@
         <v>58748</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>44222</v>
+        <v>44000</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>75977</v>
+        <v>76564</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04307980656928417</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03242838007852862</v>
+        <v>0.03226569112878753</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05571403006862936</v>
+        <v>0.05614495725383609</v>
       </c>
     </row>
     <row r="30">
@@ -6842,19 +6842,19 @@
         <v>566514</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>557096</v>
+        <v>555653</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>574492</v>
+        <v>574168</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9580363426380963</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9421091712667508</v>
+        <v>0.9396695154235284</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9715290721533963</v>
+        <v>0.9709800627794227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>609</v>
@@ -6863,19 +6863,19 @@
         <v>717933</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>697375</v>
+        <v>697663</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>732059</v>
+        <v>732468</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9295267168094717</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9029093159348713</v>
+        <v>0.9032832301962919</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9478163779592628</v>
+        <v>0.9483449955464983</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1208</v>
@@ -6884,19 +6884,19 @@
         <v>1284447</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1264487</v>
+        <v>1264079</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1301638</v>
+        <v>1300625</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9418891420467946</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9272528417300671</v>
+        <v>0.9269533139686756</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9544956853756151</v>
+        <v>0.9537530141097237</v>
       </c>
     </row>
     <row r="31">
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3138</v>
+        <v>3046</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005085039488779474</v>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02606581157882127</v>
+        <v>0.02529472386797507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3056</v>
+        <v>3107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003140356705412812</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01567529937663969</v>
+        <v>0.01593737570033809</v>
       </c>
     </row>
     <row r="5">
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3407</v>
+        <v>3941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0142273782765966</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04569287991854446</v>
+        <v>0.05286244210029428</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3787</v>
+        <v>3811</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005441007419508389</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01942453544433123</v>
+        <v>0.01954566374648629</v>
       </c>
     </row>
     <row r="6">
@@ -7356,7 +7356,7 @@
         <v>119789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117263</v>
+        <v>117355</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>120401</v>
@@ -7365,7 +7365,7 @@
         <v>0.9949149605112205</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9739341884211787</v>
+        <v>0.9747052761320251</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -7377,16 +7377,16 @@
         <v>73498</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71152</v>
+        <v>70618</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>74559</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9857726217234034</v>
+        <v>0.9857726217234035</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9543071200814557</v>
+        <v>0.9471375578997058</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -7398,19 +7398,19 @@
         <v>193287</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190309</v>
+        <v>190145</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194555</v>
+        <v>194553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9914186358750788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9761415260767247</v>
+        <v>0.9753024619225164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9979211769286088</v>
+        <v>0.9979118478363688</v>
       </c>
     </row>
     <row r="7">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3670</v>
+        <v>3551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01904969999567533</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06625976130452806</v>
+        <v>0.06411823776707593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -7539,16 +7539,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3545</v>
+        <v>3972</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.006590028894519304</v>
+        <v>0.006590028894519305</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02214472411049438</v>
+        <v>0.02480713411316182</v>
       </c>
     </row>
     <row r="9">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3140</v>
+        <v>3222</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0057440100733454</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02998347762508603</v>
+        <v>0.03077398639198933</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3820</v>
+        <v>3672</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01955070557751794</v>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06897364396106558</v>
+        <v>0.06629783857306756</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -7607,19 +7607,19 @@
         <v>1684</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4444</v>
+        <v>4393</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01052028068815732</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003132113472746738</v>
+        <v>0.003071926856782889</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02775488830796484</v>
+        <v>0.02743693007665478</v>
       </c>
     </row>
     <row r="10">
@@ -7636,16 +7636,16 @@
         <v>104114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101575</v>
+        <v>101493</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>104715</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9942559899266546</v>
+        <v>0.9942559899266545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9700165223749139</v>
+        <v>0.969226013608012</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -7657,19 +7657,19 @@
         <v>53247</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50124</v>
+        <v>49957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54809</v>
+        <v>54729</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9613995944268068</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9050142373983943</v>
+        <v>0.9019873562643417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9895927171146361</v>
+        <v>0.9881501962630455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>240</v>
@@ -7678,19 +7678,19 @@
         <v>157361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153811</v>
+        <v>153551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159076</v>
+        <v>159036</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.982889690417323</v>
+        <v>0.9828896904173232</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9607181422608091</v>
+        <v>0.9590966678299835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9936053822319737</v>
+        <v>0.993354138728417</v>
       </c>
     </row>
     <row r="11">
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2719</v>
+        <v>2880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004242500090562728</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02417768391695562</v>
+        <v>0.02560664992990772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2088</v>
+        <v>2652</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002807253420586784</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0122866397096826</v>
+        <v>0.01560448068585594</v>
       </c>
     </row>
     <row r="13">
@@ -7845,19 +7845,19 @@
         <v>2483</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6587</v>
+        <v>7018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0220797613125111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004519910897878585</v>
+        <v>0.004531897348386663</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05856747483920745</v>
+        <v>0.06240036670774698</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -7866,19 +7866,19 @@
         <v>3108</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1264</v>
+        <v>1303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6840</v>
+        <v>6811</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05404657301741327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02197531375168539</v>
+        <v>0.02265827675295487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1189481307168004</v>
+        <v>0.1184565179011081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -7887,19 +7887,19 @@
         <v>5591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2629</v>
+        <v>2959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9821</v>
+        <v>11162</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03289420069255205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01546423340180815</v>
+        <v>0.01740950043472993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05777872696985387</v>
+        <v>0.06566991219122703</v>
       </c>
     </row>
     <row r="14">
@@ -7916,19 +7916,19 @@
         <v>109511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105497</v>
+        <v>105492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111493</v>
+        <v>111497</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.973677738596926</v>
+        <v>0.9736777385969262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9379902451420823</v>
+        <v>0.9379460009792943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9913051713736698</v>
+        <v>0.991338719262753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -7937,19 +7937,19 @@
         <v>54394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50662</v>
+        <v>50691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56238</v>
+        <v>56199</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9459534269825867</v>
+        <v>0.9459534269825868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8810518692831998</v>
+        <v>0.8815434820988912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9780246862483147</v>
+        <v>0.9773417232470446</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>258</v>
@@ -7958,19 +7958,19 @@
         <v>163905</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159426</v>
+        <v>158851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166968</v>
+        <v>166648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.964298545886861</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9379468651185076</v>
+        <v>0.9345685490798986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9823229915332468</v>
+        <v>0.9804393870573483</v>
       </c>
     </row>
     <row r="15">
@@ -8062,19 +8062,19 @@
         <v>3267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7659</v>
+        <v>6989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01259587791971021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003630801601521542</v>
+        <v>0.003573515392691873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02953272646702248</v>
+        <v>0.02694748284074576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -8083,19 +8083,19 @@
         <v>3054</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1357</v>
+        <v>1182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6423</v>
+        <v>6116</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02333211381931203</v>
+        <v>0.02333211381931202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01036791096222748</v>
+        <v>0.009032065015029539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04907838965586515</v>
+        <v>0.04673132844320049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8104,19 +8104,19 @@
         <v>6320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3023</v>
+        <v>3356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11060</v>
+        <v>11333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01619683380819954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007746148876792211</v>
+        <v>0.008600163885212274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02834430675452883</v>
+        <v>0.02904394571690451</v>
       </c>
     </row>
     <row r="17">
@@ -8133,19 +8133,19 @@
         <v>15330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10209</v>
+        <v>9657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23523</v>
+        <v>22784</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05911093884968634</v>
+        <v>0.05911093884968632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03936557606126688</v>
+        <v>0.03723842316407132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0907041841180547</v>
+        <v>0.08785529324925205</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -8154,19 +8154,19 @@
         <v>3392</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1400</v>
+        <v>1483</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6966</v>
+        <v>6855</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0259144011403141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01069985947041428</v>
+        <v>0.01132889893449874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0532274917923785</v>
+        <v>0.05237381495309452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -8175,19 +8175,19 @@
         <v>18721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12311</v>
+        <v>12676</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25664</v>
+        <v>26790</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04797675094063943</v>
+        <v>0.04797675094063941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0315502347061578</v>
+        <v>0.03248475390650844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06576854870322414</v>
+        <v>0.06865501625916683</v>
       </c>
     </row>
     <row r="18">
@@ -8204,19 +8204,19 @@
         <v>240742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>232174</v>
+        <v>232664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>246380</v>
+        <v>246714</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9282931832306035</v>
+        <v>0.9282931832306034</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8952581306361734</v>
+        <v>0.8971470027895239</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9500348689741146</v>
+        <v>0.9513206551697793</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>245</v>
@@ -8225,19 +8225,19 @@
         <v>124435</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>120249</v>
+        <v>120644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127214</v>
+        <v>127625</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9507534850403738</v>
+        <v>0.9507534850403737</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9187752902449159</v>
+        <v>0.9217926814018891</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9719890322191822</v>
+        <v>0.975132550891552</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>588</v>
@@ -8246,19 +8246,19 @@
         <v>365176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>357284</v>
+        <v>355383</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>372504</v>
+        <v>371870</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9358264152511611</v>
+        <v>0.9358264152511613</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9156011534837946</v>
+        <v>0.9107282665512392</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9546041312267796</v>
+        <v>0.9529804658140655</v>
       </c>
     </row>
     <row r="19">
@@ -8350,19 +8350,19 @@
         <v>1484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4147</v>
+        <v>4484</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01472676544760801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003344205901184256</v>
+        <v>0.003473984207635384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04114783546764562</v>
+        <v>0.04448682443644722</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -8371,19 +8371,19 @@
         <v>8930</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5165</v>
+        <v>5222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14297</v>
+        <v>14256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04061468770094151</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02349051094994794</v>
+        <v>0.02375090374973318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06502420122169568</v>
+        <v>0.0648409228674969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -8392,19 +8392,19 @@
         <v>10414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6364</v>
+        <v>6431</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16315</v>
+        <v>15503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03247729876976516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01984702724801942</v>
+        <v>0.02005465138789059</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0508801903096989</v>
+        <v>0.04834630108852092</v>
       </c>
     </row>
     <row r="21">
@@ -8421,19 +8421,19 @@
         <v>4114</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1805</v>
+        <v>1876</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7958</v>
+        <v>8015</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04081296336651896</v>
+        <v>0.04081296336651897</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01791288669243338</v>
+        <v>0.01861339716294912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07895855964510418</v>
+        <v>0.07951987620406731</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -8442,19 +8442,19 @@
         <v>17210</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12598</v>
+        <v>12009</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23601</v>
+        <v>23668</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07827680652155085</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05729847407997611</v>
+        <v>0.05461915582125335</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1073437476144362</v>
+        <v>0.1076452172097046</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -8463,19 +8463,19 @@
         <v>21324</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15923</v>
+        <v>15765</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>27994</v>
+        <v>29116</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06650074123420134</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04965540700029913</v>
+        <v>0.04916300433037933</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08730137467123485</v>
+        <v>0.09080038906611133</v>
       </c>
     </row>
     <row r="22">
@@ -8492,19 +8492,19 @@
         <v>95195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91097</v>
+        <v>91023</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97943</v>
+        <v>97854</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9444602711858729</v>
+        <v>0.9444602711858733</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9038039331500887</v>
+        <v>0.9030666179283728</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9717289928242608</v>
+        <v>0.9708368937662477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>388</v>
@@ -8513,19 +8513,19 @@
         <v>193726</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186187</v>
+        <v>186196</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199700</v>
+        <v>199992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8811085057775077</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8468192714097902</v>
+        <v>0.8468606822066724</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9082827194613455</v>
+        <v>0.9096090615498247</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>525</v>
@@ -8534,19 +8534,19 @@
         <v>288922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>280431</v>
+        <v>280327</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>295837</v>
+        <v>295562</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9010219599960334</v>
+        <v>0.9010219599960336</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8745431606046684</v>
+        <v>0.8742196499411798</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9225892178050826</v>
+        <v>0.9217297046689891</v>
       </c>
     </row>
     <row r="23">
@@ -8651,19 +8651,19 @@
         <v>13438</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8049</v>
+        <v>8406</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19772</v>
+        <v>20394</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03893547475309171</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02331977936484836</v>
+        <v>0.02435578847007644</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0572887129524467</v>
+        <v>0.05908977526855928</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -8672,19 +8672,19 @@
         <v>13438</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8502</v>
+        <v>8245</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20928</v>
+        <v>20813</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03856936154519688</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02440108436103965</v>
+        <v>0.0236652102284806</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06006630235374189</v>
+        <v>0.05973775783131714</v>
       </c>
     </row>
     <row r="25">
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2187</v>
+        <v>1810</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1580662387414968</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.667446234804704</v>
+        <v>0.5526236564934454</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -8722,19 +8722,19 @@
         <v>29552</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22811</v>
+        <v>22936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38319</v>
+        <v>37376</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08562470319126785</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06609359317853254</v>
+        <v>0.06645380643719204</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1110248560965987</v>
+        <v>0.1082918666659602</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -8743,19 +8743,19 @@
         <v>30070</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23703</v>
+        <v>23327</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39245</v>
+        <v>38921</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08630587641782558</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06803227973569594</v>
+        <v>0.06695224659701347</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1126394040271423</v>
+        <v>0.1117080274117643</v>
       </c>
     </row>
     <row r="26">
@@ -8772,7 +8772,7 @@
         <v>2758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1087</v>
+        <v>1216</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>3276</v>
@@ -8781,7 +8781,7 @@
         <v>0.8419337612585031</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3317564873104306</v>
+        <v>0.3712526950812442</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8793,19 +8793,19 @@
         <v>302147</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>291463</v>
+        <v>292403</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>311016</v>
+        <v>310891</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8754398220556402</v>
+        <v>0.8754398220556404</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8444845475110916</v>
+        <v>0.8472071816916649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9011388323244487</v>
+        <v>0.9007749580602917</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>562</v>
@@ -8814,19 +8814,19 @@
         <v>304905</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>294511</v>
+        <v>294940</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>313191</v>
+        <v>313307</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8751247620369775</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8452918158636569</v>
+        <v>0.8465231878219811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8989068830451238</v>
+        <v>0.899239609899121</v>
       </c>
     </row>
     <row r="27">
@@ -8918,19 +8918,19 @@
         <v>5840</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3048</v>
+        <v>3023</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10521</v>
+        <v>11767</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.008331518208763801</v>
+        <v>0.008331518208763797</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004347875782217047</v>
+        <v>0.004313137727415449</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01500839983005871</v>
+        <v>0.01678647083760498</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>49</v>
@@ -8939,19 +8939,19 @@
         <v>26477</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19209</v>
+        <v>19467</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35405</v>
+        <v>35589</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02997369370465429</v>
+        <v>0.0299736937046543</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02174614680898982</v>
+        <v>0.02203768122860734</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04008076535031717</v>
+        <v>0.04028959375812383</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>59</v>
@@ -8960,19 +8960,19 @@
         <v>32317</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24431</v>
+        <v>24999</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42207</v>
+        <v>43082</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02039796886651526</v>
+        <v>0.02039796886651527</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01542045394050267</v>
+        <v>0.01577866786712723</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02664005542139882</v>
+        <v>0.02719288593520014</v>
       </c>
     </row>
     <row r="29">
@@ -8989,19 +8989,19 @@
         <v>23046</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16023</v>
+        <v>16611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31835</v>
+        <v>31877</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03287620946721644</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02285808852773948</v>
+        <v>0.02369570946191647</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04541412101700054</v>
+        <v>0.04547363218814966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>109</v>
@@ -9010,19 +9010,19 @@
         <v>55406</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45335</v>
+        <v>45020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66296</v>
+        <v>66595</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06272378499934778</v>
+        <v>0.06272378499934776</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05132295858665487</v>
+        <v>0.0509661035695391</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07505243337355405</v>
+        <v>0.07539119060926368</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>145</v>
@@ -9031,19 +9031,19 @@
         <v>78452</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>66567</v>
+        <v>65502</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>92978</v>
+        <v>91923</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04951752620916599</v>
+        <v>0.049517526209166</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04201630045618348</v>
+        <v>0.0413435203318244</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05868624405249435</v>
+        <v>0.05802060498884461</v>
       </c>
     </row>
     <row r="30">
@@ -9060,19 +9060,19 @@
         <v>672109</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>662644</v>
+        <v>663030</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>679916</v>
+        <v>679867</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9587922723240199</v>
+        <v>0.9587922723240198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9452901943133833</v>
+        <v>0.945841246051466</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9699295124123744</v>
+        <v>0.9698597492366963</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1513</v>
@@ -9081,19 +9081,19 @@
         <v>801448</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>788226</v>
+        <v>787801</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>813322</v>
+        <v>813816</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.907302521295998</v>
+        <v>0.9073025212959979</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8923343411671744</v>
+        <v>0.89185338311122</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9207456835106774</v>
+        <v>0.9213043880828118</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2473</v>
@@ -9102,19 +9102,19 @@
         <v>1473556</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1457574</v>
+        <v>1457470</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1487382</v>
+        <v>1489330</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9300845049243186</v>
+        <v>0.9300845049243187</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9199966421225516</v>
+        <v>0.919931120010113</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.938811246025261</v>
+        <v>0.9400405154427389</v>
       </c>
     </row>
     <row r="31">
